--- a/Лаба номер — копия (1)/Лабораторная работа.xlsx
+++ b/Лаба номер — копия (1)/Лабораторная работа.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Диаграмма1" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Построение траектории полёта тела</t>
   </si>
@@ -47,17 +48,31 @@
   <si>
     <t>dt=</t>
   </si>
+  <si>
+    <t>y0=</t>
+  </si>
+  <si>
+    <t>x0=</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -94,24 +109,25 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -131,6 +147,633 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A=</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CDEB-41C2-B2C5-95D3549A4361}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CDEB-41C2-B2C5-95D3549A4361}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CDEB-41C2-B2C5-95D3549A4361}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$4:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5000000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22499999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CDEB-41C2-B2C5-95D3549A4361}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$4:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.9116116523516817</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.8232233047033635</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.7348349570550443</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.646446609406726</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.5580582617584078</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.4696699141100895</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.3812815664617712</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.2928932188134521</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.2045048711651338</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CDEB-41C2-B2C5-95D3549A4361}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$F$4:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.9146772773516822</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8.8354858047033638</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.7624255820550445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.6954966094067263</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8.6346988867584074</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.5800324141100894</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.5314971914617708</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-8.4890932188134531</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-8.4528204961651348</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-CDEB-41C2-B2C5-95D3549A4361}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="533807743"/>
+        <c:axId val="533800255"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="533807743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="533800255"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="533800255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="533807743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -201,7 +844,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -233,34 +876,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8388347648318447E-2</c:v>
+                  <c:v>-4.9116116523516817</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17677669529663689</c:v>
+                  <c:v>-4.8232233047033635</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26516504294495535</c:v>
+                  <c:v>-4.7348349570550443</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35355339059327379</c:v>
+                  <c:v>-4.646446609406726</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.44194173824159222</c:v>
+                  <c:v>-4.5580582617584078</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5303300858899106</c:v>
+                  <c:v>-4.4696699141100895</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.61871843353822908</c:v>
+                  <c:v>-4.3812815664617712</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.70710678118654746</c:v>
+                  <c:v>-4.2928932188134521</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.79549512883486595</c:v>
+                  <c:v>-4.2045048711651338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -272,34 +915,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.532272264831843E-2</c:v>
+                  <c:v>-8.9146772773516822</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16451419529663686</c:v>
+                  <c:v>-8.8354858047033638</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23757441794495535</c:v>
+                  <c:v>-8.7624255820550445</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.30450339059327369</c:v>
+                  <c:v>-8.6954966094067263</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.36530111324159215</c:v>
+                  <c:v>-8.6346988867584074</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.41996758588991057</c:v>
+                  <c:v>-8.5800324141100894</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46850280853822901</c:v>
+                  <c:v>-8.5314971914617708</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.51090678118654731</c:v>
+                  <c:v>-8.4890932188134531</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.54717950383486591</c:v>
+                  <c:v>-8.4528204961651348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -370,6 +1013,14 @@
                   <a:rPr lang="ru-RU" sz="1400" baseline="0"/>
                   <a:t> полета</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" baseline="0"/>
+                  <a:t>м</a:t>
+                </a:r>
                 <a:endParaRPr lang="ru-RU" sz="1400"/>
               </a:p>
             </c:rich>
@@ -407,7 +1058,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -445,7 +1096,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="706149536"/>
@@ -498,7 +1149,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU" sz="1400" baseline="0"/>
-                  <a:t> полета</a:t>
+                  <a:t> полета, м</a:t>
                 </a:r>
                 <a:endParaRPr lang="ru-RU" sz="1400"/>
               </a:p>
@@ -530,7 +1181,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -568,7 +1219,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="706149120"/>
@@ -609,7 +1260,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -660,8 +1311,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -688,8 +1379,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -790,7 +1481,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -822,6 +1513,509 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -1176,18 +2370,56 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="87" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9292897" cy="6069724"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185736</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -1477,19 +2709,19 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1499,7 +2731,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1519,7 +2751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1533,13 +2765,15 @@
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <f>B7</f>
+        <v>-5</v>
       </c>
       <c r="F4" s="2">
-        <v>0</v>
+        <f>B8</f>
+        <v>-9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1554,15 +2788,15 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E5" s="2">
-        <f>$B$4*COS(RADIANS($B$3))*D5</f>
-        <v>8.8388347648318447E-2</v>
+        <f>$B$4*COS(RADIANS($B$3))*D5+$B$7</f>
+        <v>-4.9116116523516817</v>
       </c>
       <c r="F5" s="2">
-        <f>$B$4*SIN(RADIANS($B$3))*D5 - $B$5*D5*D5/2</f>
-        <v>8.532272264831843E-2</v>
+        <f>$B$4*SIN(RADIANS($B$3)) * D5-$B$5*D5*D5/2 + $B$8</f>
+        <v>-8.9146772773516822</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1573,21 +2807,25 @@
         <v>3</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ref="D6:D13" si="0">D5+$B$6</f>
+        <f t="shared" ref="D6:D31" si="0">D5+$B$6</f>
         <v>0.05</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" ref="E6:E13" si="1">$B$4*COS(RADIANS($B$3))*D6</f>
-        <v>0.17677669529663689</v>
+        <f t="shared" ref="E6:E13" si="1">$B$4*COS(RADIANS($B$3))*D6+$B$7</f>
+        <v>-4.8232233047033635</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" ref="F6:F13" si="2">$B$4*SIN(RADIANS($B$3))*D6 - $B$5*D6*D6/2</f>
-        <v>0.16451419529663686</v>
+        <f t="shared" ref="F6:F13" si="2">$B$4*SIN(RADIANS($B$3)) * D6-$B$5*D6*D6/2 + $B$8</f>
+        <v>-8.8354858047033638</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-5</v>
+      </c>
       <c r="C7" s="5">
         <v>4</v>
       </c>
@@ -1597,16 +2835,20 @@
       </c>
       <c r="E7" s="2">
         <f t="shared" si="1"/>
-        <v>0.26516504294495535</v>
+        <v>-4.7348349570550443</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="2"/>
-        <v>0.23757441794495535</v>
+        <v>-8.7624255820550445</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-9</v>
+      </c>
       <c r="C8" s="5">
         <v>5</v>
       </c>
@@ -1616,14 +2858,14 @@
       </c>
       <c r="E8" s="2">
         <f t="shared" si="1"/>
-        <v>0.35355339059327379</v>
+        <v>-4.646446609406726</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="2"/>
-        <v>0.30450339059327369</v>
+        <v>-8.6954966094067263</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="5">
@@ -1635,14 +2877,14 @@
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>0.44194173824159222</v>
+        <v>-4.5580582617584078</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="2"/>
-        <v>0.36530111324159215</v>
+        <v>-8.6346988867584074</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="5">
@@ -1654,14 +2896,14 @@
       </c>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
-        <v>0.5303300858899106</v>
+        <v>-4.4696699141100895</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="2"/>
-        <v>0.41996758588991057</v>
+        <v>-8.5800324141100894</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="5">
@@ -1673,14 +2915,14 @@
       </c>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
-        <v>0.61871843353822908</v>
+        <v>-4.3812815664617712</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="2"/>
-        <v>0.46850280853822901</v>
+        <v>-8.5314971914617708</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="5">
@@ -1692,14 +2934,14 @@
       </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
-        <v>0.70710678118654746</v>
+        <v>-4.2928932188134521</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="2"/>
-        <v>0.51090678118654731</v>
+        <v>-8.4890932188134531</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="5">
@@ -1711,11 +2953,11 @@
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
-        <v>0.79549512883486595</v>
+        <v>-4.2045048711651338</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="2"/>
-        <v>0.54717950383486591</v>
+        <v>-8.4528204961651348</v>
       </c>
     </row>
   </sheetData>
